--- a/public/templates/template_competency_assessment.xlsx
+++ b/public/templates/template_competency_assessment.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>employee_id</t>
   </si>
@@ -19,7 +19,7 @@
     <t>assessment_date</t>
   </si>
   <si>
-    <t>matrix_grade</t>
+    <t>proposed_grade</t>
   </si>
   <si>
     <t>synergized_team_score</t>
@@ -49,7 +49,10 @@
     <t>developing_others_score</t>
   </si>
   <si>
-    <t>07060121100</t>
+    <t>07023894</t>
+  </si>
+  <si>
+    <t>20-08-2025</t>
   </si>
   <si>
     <t>2A</t>
@@ -59,10 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -72,11 +72,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,18 +88,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -334,7 +326,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -366,40 +358,40 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3">
-        <v>45690.0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4">
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G2" s="1">
         <v>2.0</v>
       </c>
-      <c r="E2" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="H2" s="1">
         <v>2.0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="1">
         <v>2.0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="1">
         <v>2.0</v>
       </c>
-      <c r="J2" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="K2" s="1">
         <v>3.0</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -1397,13 +1389,17 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:L2">
+      <formula1>"0,1,2,3,4"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
       <formula1>"2A,2B,2C,2D,3A,3B,4A,4B,5A,5B,6A,6B,7A,7B,8A,8B,9A,9B"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:L2">
-      <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
